--- a/hirlevel_input.xlsx
+++ b/hirlevel_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bognarlehel/Lehel/Github/hirlevelGeneralas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F06124-9470-134B-AB54-B7A99A8DC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7471BEA3-B473-904A-AA41-3F794270985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{459D2B7B-7E9F-474D-BBE3-209893F68A98}"/>
   </bookViews>
@@ -225,10 +225,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -547,7 +549,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,16 +558,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -576,10 +578,10 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -590,10 +592,10 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -604,10 +606,10 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -618,10 +620,10 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -632,10 +634,10 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -646,10 +648,10 @@
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -660,10 +662,10 @@
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
